--- a/mockData.xlsx
+++ b/mockData.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>key</t>
   </si>
@@ -45,6 +45,9 @@
   </si>
   <si>
     <t>salaryPerDay</t>
+  </si>
+  <si>
+    <t>icon</t>
   </si>
 </sst>
 </file>
@@ -360,15 +363,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F51"/>
+  <dimension ref="A1:G51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F51"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -387,14 +390,17 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="str">
         <f ca="1">INDEX({"泥水","木匠","油漆","喉管","模板","扎鐵","混凝土","搭棚","平水及測量","電器","金屬棚架","金屬工","雲石","雕刻木器","天花間隔","挖掘機"}, RANDBETWEEN(1,16))</f>
-        <v>平水及測量</v>
+        <v>電器</v>
       </c>
       <c r="C2" s="1">
         <v>42826</v>
@@ -404,20 +410,20 @@
       </c>
       <c r="E2" t="str">
         <f ca="1">INDEX({"中 西 區","東 區","南 區","灣 仔","九 龍 城","觀 塘","深 水 埗","黃 大 仙","油 尖 旺","離 島","葵 青","北 區","西 貢","沙 田","大 埔","荃 灣","屯 門","元 朗"}, RANDBETWEEN(1,18))</f>
-        <v>離 島</v>
+        <v>油 尖 旺</v>
       </c>
       <c r="F2">
         <f ca="1">RANDBETWEEN(1000,5000)</f>
-        <v>2720</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+        <v>1543</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="str">
         <f ca="1">INDEX({"泥水","木匠","油漆","喉管","模板","扎鐵","混凝土","搭棚","平水及測量","電器","金屬棚架","金屬工","雲石","雕刻木器","天花間隔","挖掘機"}, RANDBETWEEN(1,16))</f>
-        <v>模板</v>
+        <v>油漆</v>
       </c>
       <c r="C3" s="1">
         <v>42827</v>
@@ -427,20 +433,20 @@
       </c>
       <c r="E3" t="str">
         <f ca="1">INDEX({"中 西 區","東 區","南 區","灣 仔","九 龍 城","觀 塘","深 水 埗","黃 大 仙","油 尖 旺","離 島","葵 青","北 區","西 貢","沙 田","大 埔","荃 灣","屯 門","元 朗"}, RANDBETWEEN(1,18))</f>
-        <v>葵 青</v>
+        <v>灣 仔</v>
       </c>
       <c r="F3">
         <f t="shared" ref="F3:F51" ca="1" si="0">RANDBETWEEN(1000,5000)</f>
-        <v>1625</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+        <v>3097</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="str">
         <f ca="1">INDEX({"泥水","木匠","油漆","喉管","模板","扎鐵","混凝土","搭棚","平水及測量","電器","金屬棚架","金屬工","雲石","雕刻木器","天花間隔","挖掘機"}, RANDBETWEEN(1,16))</f>
-        <v>油漆</v>
+        <v>金屬工</v>
       </c>
       <c r="C4" s="1">
         <v>42828</v>
@@ -450,20 +456,20 @@
       </c>
       <c r="E4" t="str">
         <f ca="1">INDEX({"中 西 區","東 區","南 區","灣 仔","九 龍 城","觀 塘","深 水 埗","黃 大 仙","油 尖 旺","離 島","葵 青","北 區","西 貢","沙 田","大 埔","荃 灣","屯 門","元 朗"}, RANDBETWEEN(1,18))</f>
-        <v>油 尖 旺</v>
+        <v>沙 田</v>
       </c>
       <c r="F4">
         <f t="shared" ca="1" si="0"/>
-        <v>1785</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+        <v>4033</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="str">
         <f ca="1">INDEX({"泥水","木匠","油漆","喉管","模板","扎鐵","混凝土","搭棚","平水及測量","電器","金屬棚架","金屬工","雲石","雕刻木器","天花間隔","挖掘機"}, RANDBETWEEN(1,16))</f>
-        <v>金屬工</v>
+        <v>電器</v>
       </c>
       <c r="C5" s="1">
         <v>42829</v>
@@ -473,20 +479,20 @@
       </c>
       <c r="E5" t="str">
         <f ca="1">INDEX({"中 西 區","東 區","南 區","灣 仔","九 龍 城","觀 塘","深 水 埗","黃 大 仙","油 尖 旺","離 島","葵 青","北 區","西 貢","沙 田","大 埔","荃 灣","屯 門","元 朗"}, RANDBETWEEN(1,18))</f>
-        <v>黃 大 仙</v>
+        <v>屯 門</v>
       </c>
       <c r="F5">
         <f t="shared" ca="1" si="0"/>
-        <v>2981</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+        <v>3424</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="str">
         <f ca="1">INDEX({"泥水","木匠","油漆","喉管","模板","扎鐵","混凝土","搭棚","平水及測量","電器","金屬棚架","金屬工","雲石","雕刻木器","天花間隔","挖掘機"}, RANDBETWEEN(1,16))</f>
-        <v>雕刻木器</v>
+        <v>泥水</v>
       </c>
       <c r="C6" s="1">
         <v>42830</v>
@@ -496,20 +502,20 @@
       </c>
       <c r="E6" t="str">
         <f ca="1">INDEX({"中 西 區","東 區","南 區","灣 仔","九 龍 城","觀 塘","深 水 埗","黃 大 仙","油 尖 旺","離 島","葵 青","北 區","西 貢","沙 田","大 埔","荃 灣","屯 門","元 朗"}, RANDBETWEEN(1,18))</f>
-        <v>大 埔</v>
+        <v>葵 青</v>
       </c>
       <c r="F6">
         <f t="shared" ca="1" si="0"/>
-        <v>3189</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+        <v>3068</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="str">
         <f ca="1">INDEX({"泥水","木匠","油漆","喉管","模板","扎鐵","混凝土","搭棚","平水及測量","電器","金屬棚架","金屬工","雲石","雕刻木器","天花間隔","挖掘機"}, RANDBETWEEN(1,16))</f>
-        <v>金屬棚架</v>
+        <v>搭棚</v>
       </c>
       <c r="C7" s="1">
         <v>42831</v>
@@ -519,20 +525,20 @@
       </c>
       <c r="E7" t="str">
         <f ca="1">INDEX({"中 西 區","東 區","南 區","灣 仔","九 龍 城","觀 塘","深 水 埗","黃 大 仙","油 尖 旺","離 島","葵 青","北 區","西 貢","沙 田","大 埔","荃 灣","屯 門","元 朗"}, RANDBETWEEN(1,18))</f>
-        <v>深 水 埗</v>
+        <v>油 尖 旺</v>
       </c>
       <c r="F7">
         <f t="shared" ca="1" si="0"/>
-        <v>1758</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+        <v>1841</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="str">
         <f ca="1">INDEX({"泥水","木匠","油漆","喉管","模板","扎鐵","混凝土","搭棚","平水及測量","電器","金屬棚架","金屬工","雲石","雕刻木器","天花間隔","挖掘機"}, RANDBETWEEN(1,16))</f>
-        <v>油漆</v>
+        <v>搭棚</v>
       </c>
       <c r="C8" s="1">
         <v>42832</v>
@@ -542,20 +548,20 @@
       </c>
       <c r="E8" t="str">
         <f ca="1">INDEX({"中 西 區","東 區","南 區","灣 仔","九 龍 城","觀 塘","深 水 埗","黃 大 仙","油 尖 旺","離 島","葵 青","北 區","西 貢","沙 田","大 埔","荃 灣","屯 門","元 朗"}, RANDBETWEEN(1,18))</f>
-        <v>灣 仔</v>
+        <v>南 區</v>
       </c>
       <c r="F8">
         <f t="shared" ca="1" si="0"/>
-        <v>4522</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+        <v>1447</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="str">
         <f ca="1">INDEX({"泥水","木匠","油漆","喉管","模板","扎鐵","混凝土","搭棚","平水及測量","電器","金屬棚架","金屬工","雲石","雕刻木器","天花間隔","挖掘機"}, RANDBETWEEN(1,16))</f>
-        <v>雲石</v>
+        <v>金屬工</v>
       </c>
       <c r="C9" s="1">
         <v>42833</v>
@@ -565,20 +571,20 @@
       </c>
       <c r="E9" t="str">
         <f ca="1">INDEX({"中 西 區","東 區","南 區","灣 仔","九 龍 城","觀 塘","深 水 埗","黃 大 仙","油 尖 旺","離 島","葵 青","北 區","西 貢","沙 田","大 埔","荃 灣","屯 門","元 朗"}, RANDBETWEEN(1,18))</f>
-        <v>屯 門</v>
+        <v>大 埔</v>
       </c>
       <c r="F9">
         <f t="shared" ca="1" si="0"/>
-        <v>2478</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+        <v>4552</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="str">
         <f ca="1">INDEX({"泥水","木匠","油漆","喉管","模板","扎鐵","混凝土","搭棚","平水及測量","電器","金屬棚架","金屬工","雲石","雕刻木器","天花間隔","挖掘機"}, RANDBETWEEN(1,16))</f>
-        <v>扎鐵</v>
+        <v>天花間隔</v>
       </c>
       <c r="C10" s="1">
         <v>42834</v>
@@ -588,20 +594,20 @@
       </c>
       <c r="E10" t="str">
         <f ca="1">INDEX({"中 西 區","東 區","南 區","灣 仔","九 龍 城","觀 塘","深 水 埗","黃 大 仙","油 尖 旺","離 島","葵 青","北 區","西 貢","沙 田","大 埔","荃 灣","屯 門","元 朗"}, RANDBETWEEN(1,18))</f>
-        <v>西 貢</v>
+        <v>深 水 埗</v>
       </c>
       <c r="F10">
         <f t="shared" ca="1" si="0"/>
-        <v>2652</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+        <v>3231</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="str">
         <f ca="1">INDEX({"泥水","木匠","油漆","喉管","模板","扎鐵","混凝土","搭棚","平水及測量","電器","金屬棚架","金屬工","雲石","雕刻木器","天花間隔","挖掘機"}, RANDBETWEEN(1,16))</f>
-        <v>電器</v>
+        <v>挖掘機</v>
       </c>
       <c r="C11" s="1">
         <v>42835</v>
@@ -615,16 +621,16 @@
       </c>
       <c r="F11">
         <f t="shared" ca="1" si="0"/>
-        <v>1549</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+        <v>4521</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="str">
         <f ca="1">INDEX({"泥水","木匠","油漆","喉管","模板","扎鐵","混凝土","搭棚","平水及測量","電器","金屬棚架","金屬工","雲石","雕刻木器","天花間隔","挖掘機"}, RANDBETWEEN(1,16))</f>
-        <v>木匠</v>
+        <v>平水及測量</v>
       </c>
       <c r="C12" s="1">
         <v>42836</v>
@@ -634,20 +640,20 @@
       </c>
       <c r="E12" t="str">
         <f ca="1">INDEX({"中 西 區","東 區","南 區","灣 仔","九 龍 城","觀 塘","深 水 埗","黃 大 仙","油 尖 旺","離 島","葵 青","北 區","西 貢","沙 田","大 埔","荃 灣","屯 門","元 朗"}, RANDBETWEEN(1,18))</f>
-        <v>九 龍 城</v>
+        <v>荃 灣</v>
       </c>
       <c r="F12">
         <f t="shared" ca="1" si="0"/>
-        <v>1501</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+        <v>4806</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="str">
         <f ca="1">INDEX({"泥水","木匠","油漆","喉管","模板","扎鐵","混凝土","搭棚","平水及測量","電器","金屬棚架","金屬工","雲石","雕刻木器","天花間隔","挖掘機"}, RANDBETWEEN(1,16))</f>
-        <v>雕刻木器</v>
+        <v>天花間隔</v>
       </c>
       <c r="C13" s="1">
         <v>42837</v>
@@ -657,20 +663,20 @@
       </c>
       <c r="E13" t="str">
         <f ca="1">INDEX({"中 西 區","東 區","南 區","灣 仔","九 龍 城","觀 塘","深 水 埗","黃 大 仙","油 尖 旺","離 島","葵 青","北 區","西 貢","沙 田","大 埔","荃 灣","屯 門","元 朗"}, RANDBETWEEN(1,18))</f>
-        <v>油 尖 旺</v>
+        <v>屯 門</v>
       </c>
       <c r="F13">
         <f t="shared" ca="1" si="0"/>
-        <v>1690</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+        <v>2225</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="str">
         <f ca="1">INDEX({"泥水","木匠","油漆","喉管","模板","扎鐵","混凝土","搭棚","平水及測量","電器","金屬棚架","金屬工","雲石","雕刻木器","天花間隔","挖掘機"}, RANDBETWEEN(1,16))</f>
-        <v>喉管</v>
+        <v>混凝土</v>
       </c>
       <c r="C14" s="1">
         <v>42838</v>
@@ -680,20 +686,20 @@
       </c>
       <c r="E14" t="str">
         <f ca="1">INDEX({"中 西 區","東 區","南 區","灣 仔","九 龍 城","觀 塘","深 水 埗","黃 大 仙","油 尖 旺","離 島","葵 青","北 區","西 貢","沙 田","大 埔","荃 灣","屯 門","元 朗"}, RANDBETWEEN(1,18))</f>
-        <v>元 朗</v>
+        <v>九 龍 城</v>
       </c>
       <c r="F14">
         <f t="shared" ca="1" si="0"/>
-        <v>3251</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+        <v>2999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="str">
         <f ca="1">INDEX({"泥水","木匠","油漆","喉管","模板","扎鐵","混凝土","搭棚","平水及測量","電器","金屬棚架","金屬工","雲石","雕刻木器","天花間隔","挖掘機"}, RANDBETWEEN(1,16))</f>
-        <v>木匠</v>
+        <v>雲石</v>
       </c>
       <c r="C15" s="1">
         <v>42839</v>
@@ -703,20 +709,20 @@
       </c>
       <c r="E15" t="str">
         <f ca="1">INDEX({"中 西 區","東 區","南 區","灣 仔","九 龍 城","觀 塘","深 水 埗","黃 大 仙","油 尖 旺","離 島","葵 青","北 區","西 貢","沙 田","大 埔","荃 灣","屯 門","元 朗"}, RANDBETWEEN(1,18))</f>
-        <v>東 區</v>
+        <v>元 朗</v>
       </c>
       <c r="F15">
         <f t="shared" ca="1" si="0"/>
-        <v>2162</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+        <v>3803</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="str">
         <f ca="1">INDEX({"泥水","木匠","油漆","喉管","模板","扎鐵","混凝土","搭棚","平水及測量","電器","金屬棚架","金屬工","雲石","雕刻木器","天花間隔","挖掘機"}, RANDBETWEEN(1,16))</f>
-        <v>喉管</v>
+        <v>模板</v>
       </c>
       <c r="C16" s="1">
         <v>42840</v>
@@ -726,11 +732,11 @@
       </c>
       <c r="E16" t="str">
         <f ca="1">INDEX({"中 西 區","東 區","南 區","灣 仔","九 龍 城","觀 塘","深 水 埗","黃 大 仙","油 尖 旺","離 島","葵 青","北 區","西 貢","沙 田","大 埔","荃 灣","屯 門","元 朗"}, RANDBETWEEN(1,18))</f>
-        <v>中 西 區</v>
+        <v>西 貢</v>
       </c>
       <c r="F16">
         <f t="shared" ca="1" si="0"/>
-        <v>1967</v>
+        <v>4739</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
@@ -749,11 +755,11 @@
       </c>
       <c r="E17" t="str">
         <f ca="1">INDEX({"中 西 區","東 區","南 區","灣 仔","九 龍 城","觀 塘","深 水 埗","黃 大 仙","油 尖 旺","離 島","葵 青","北 區","西 貢","沙 田","大 埔","荃 灣","屯 門","元 朗"}, RANDBETWEEN(1,18))</f>
-        <v>屯 門</v>
+        <v>中 西 區</v>
       </c>
       <c r="F17">
         <f t="shared" ca="1" si="0"/>
-        <v>3838</v>
+        <v>3877</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
@@ -762,7 +768,7 @@
       </c>
       <c r="B18" t="str">
         <f ca="1">INDEX({"泥水","木匠","油漆","喉管","模板","扎鐵","混凝土","搭棚","平水及測量","電器","金屬棚架","金屬工","雲石","雕刻木器","天花間隔","挖掘機"}, RANDBETWEEN(1,16))</f>
-        <v>天花間隔</v>
+        <v>扎鐵</v>
       </c>
       <c r="C18" s="1">
         <v>42842</v>
@@ -772,11 +778,11 @@
       </c>
       <c r="E18" t="str">
         <f ca="1">INDEX({"中 西 區","東 區","南 區","灣 仔","九 龍 城","觀 塘","深 水 埗","黃 大 仙","油 尖 旺","離 島","葵 青","北 區","西 貢","沙 田","大 埔","荃 灣","屯 門","元 朗"}, RANDBETWEEN(1,18))</f>
-        <v>灣 仔</v>
+        <v>深 水 埗</v>
       </c>
       <c r="F18">
         <f t="shared" ca="1" si="0"/>
-        <v>2729</v>
+        <v>2993</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
@@ -785,7 +791,7 @@
       </c>
       <c r="B19" t="str">
         <f ca="1">INDEX({"泥水","木匠","油漆","喉管","模板","扎鐵","混凝土","搭棚","平水及測量","電器","金屬棚架","金屬工","雲石","雕刻木器","天花間隔","挖掘機"}, RANDBETWEEN(1,16))</f>
-        <v>金屬工</v>
+        <v>天花間隔</v>
       </c>
       <c r="C19" s="1">
         <v>42843</v>
@@ -795,11 +801,11 @@
       </c>
       <c r="E19" t="str">
         <f ca="1">INDEX({"中 西 區","東 區","南 區","灣 仔","九 龍 城","觀 塘","深 水 埗","黃 大 仙","油 尖 旺","離 島","葵 青","北 區","西 貢","沙 田","大 埔","荃 灣","屯 門","元 朗"}, RANDBETWEEN(1,18))</f>
-        <v>黃 大 仙</v>
+        <v>屯 門</v>
       </c>
       <c r="F19">
         <f t="shared" ca="1" si="0"/>
-        <v>4332</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
@@ -808,7 +814,7 @@
       </c>
       <c r="B20" t="str">
         <f ca="1">INDEX({"泥水","木匠","油漆","喉管","模板","扎鐵","混凝土","搭棚","平水及測量","電器","金屬棚架","金屬工","雲石","雕刻木器","天花間隔","挖掘機"}, RANDBETWEEN(1,16))</f>
-        <v>雕刻木器</v>
+        <v>金屬工</v>
       </c>
       <c r="C20" s="1">
         <v>42844</v>
@@ -818,11 +824,11 @@
       </c>
       <c r="E20" t="str">
         <f ca="1">INDEX({"中 西 區","東 區","南 區","灣 仔","九 龍 城","觀 塘","深 水 埗","黃 大 仙","油 尖 旺","離 島","葵 青","北 區","西 貢","沙 田","大 埔","荃 灣","屯 門","元 朗"}, RANDBETWEEN(1,18))</f>
-        <v>觀 塘</v>
+        <v>元 朗</v>
       </c>
       <c r="F20">
         <f t="shared" ca="1" si="0"/>
-        <v>1494</v>
+        <v>4597</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
@@ -831,7 +837,7 @@
       </c>
       <c r="B21" t="str">
         <f ca="1">INDEX({"泥水","木匠","油漆","喉管","模板","扎鐵","混凝土","搭棚","平水及測量","電器","金屬棚架","金屬工","雲石","雕刻木器","天花間隔","挖掘機"}, RANDBETWEEN(1,16))</f>
-        <v>扎鐵</v>
+        <v>平水及測量</v>
       </c>
       <c r="C21" s="1">
         <v>42845</v>
@@ -841,11 +847,11 @@
       </c>
       <c r="E21" t="str">
         <f ca="1">INDEX({"中 西 區","東 區","南 區","灣 仔","九 龍 城","觀 塘","深 水 埗","黃 大 仙","油 尖 旺","離 島","葵 青","北 區","西 貢","沙 田","大 埔","荃 灣","屯 門","元 朗"}, RANDBETWEEN(1,18))</f>
-        <v>中 西 區</v>
+        <v>元 朗</v>
       </c>
       <c r="F21">
         <f t="shared" ca="1" si="0"/>
-        <v>3388</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
@@ -854,7 +860,7 @@
       </c>
       <c r="B22" t="str">
         <f ca="1">INDEX({"泥水","木匠","油漆","喉管","模板","扎鐵","混凝土","搭棚","平水及測量","電器","金屬棚架","金屬工","雲石","雕刻木器","天花間隔","挖掘機"}, RANDBETWEEN(1,16))</f>
-        <v>挖掘機</v>
+        <v>金屬棚架</v>
       </c>
       <c r="C22" s="1">
         <v>42846</v>
@@ -864,11 +870,11 @@
       </c>
       <c r="E22" t="str">
         <f ca="1">INDEX({"中 西 區","東 區","南 區","灣 仔","九 龍 城","觀 塘","深 水 埗","黃 大 仙","油 尖 旺","離 島","葵 青","北 區","西 貢","沙 田","大 埔","荃 灣","屯 門","元 朗"}, RANDBETWEEN(1,18))</f>
-        <v>九 龍 城</v>
+        <v>油 尖 旺</v>
       </c>
       <c r="F22">
         <f t="shared" ca="1" si="0"/>
-        <v>1463</v>
+        <v>3119</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
@@ -877,7 +883,7 @@
       </c>
       <c r="B23" t="str">
         <f ca="1">INDEX({"泥水","木匠","油漆","喉管","模板","扎鐵","混凝土","搭棚","平水及測量","電器","金屬棚架","金屬工","雲石","雕刻木器","天花間隔","挖掘機"}, RANDBETWEEN(1,16))</f>
-        <v>混凝土</v>
+        <v>平水及測量</v>
       </c>
       <c r="C23" s="1">
         <v>42847</v>
@@ -887,11 +893,11 @@
       </c>
       <c r="E23" t="str">
         <f ca="1">INDEX({"中 西 區","東 區","南 區","灣 仔","九 龍 城","觀 塘","深 水 埗","黃 大 仙","油 尖 旺","離 島","葵 青","北 區","西 貢","沙 田","大 埔","荃 灣","屯 門","元 朗"}, RANDBETWEEN(1,18))</f>
-        <v>西 貢</v>
+        <v>大 埔</v>
       </c>
       <c r="F23">
         <f t="shared" ca="1" si="0"/>
-        <v>2213</v>
+        <v>1353</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
@@ -900,7 +906,7 @@
       </c>
       <c r="B24" t="str">
         <f ca="1">INDEX({"泥水","木匠","油漆","喉管","模板","扎鐵","混凝土","搭棚","平水及測量","電器","金屬棚架","金屬工","雲石","雕刻木器","天花間隔","挖掘機"}, RANDBETWEEN(1,16))</f>
-        <v>扎鐵</v>
+        <v>木匠</v>
       </c>
       <c r="C24" s="1">
         <v>42848</v>
@@ -910,11 +916,11 @@
       </c>
       <c r="E24" t="str">
         <f ca="1">INDEX({"中 西 區","東 區","南 區","灣 仔","九 龍 城","觀 塘","深 水 埗","黃 大 仙","油 尖 旺","離 島","葵 青","北 區","西 貢","沙 田","大 埔","荃 灣","屯 門","元 朗"}, RANDBETWEEN(1,18))</f>
-        <v>屯 門</v>
+        <v>北 區</v>
       </c>
       <c r="F24">
         <f t="shared" ca="1" si="0"/>
-        <v>2371</v>
+        <v>3259</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
@@ -923,7 +929,7 @@
       </c>
       <c r="B25" t="str">
         <f ca="1">INDEX({"泥水","木匠","油漆","喉管","模板","扎鐵","混凝土","搭棚","平水及測量","電器","金屬棚架","金屬工","雲石","雕刻木器","天花間隔","挖掘機"}, RANDBETWEEN(1,16))</f>
-        <v>電器</v>
+        <v>混凝土</v>
       </c>
       <c r="C25" s="1">
         <v>42849</v>
@@ -933,11 +939,11 @@
       </c>
       <c r="E25" t="str">
         <f ca="1">INDEX({"中 西 區","東 區","南 區","灣 仔","九 龍 城","觀 塘","深 水 埗","黃 大 仙","油 尖 旺","離 島","葵 青","北 區","西 貢","沙 田","大 埔","荃 灣","屯 門","元 朗"}, RANDBETWEEN(1,18))</f>
-        <v>元 朗</v>
+        <v>離 島</v>
       </c>
       <c r="F25">
         <f t="shared" ca="1" si="0"/>
-        <v>4034</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
@@ -946,7 +952,7 @@
       </c>
       <c r="B26" t="str">
         <f ca="1">INDEX({"泥水","木匠","油漆","喉管","模板","扎鐵","混凝土","搭棚","平水及測量","電器","金屬棚架","金屬工","雲石","雕刻木器","天花間隔","挖掘機"}, RANDBETWEEN(1,16))</f>
-        <v>木匠</v>
+        <v>混凝土</v>
       </c>
       <c r="C26" s="1">
         <v>42850</v>
@@ -956,11 +962,11 @@
       </c>
       <c r="E26" t="str">
         <f ca="1">INDEX({"中 西 區","東 區","南 區","灣 仔","九 龍 城","觀 塘","深 水 埗","黃 大 仙","油 尖 旺","離 島","葵 青","北 區","西 貢","沙 田","大 埔","荃 灣","屯 門","元 朗"}, RANDBETWEEN(1,18))</f>
-        <v>觀 塘</v>
+        <v>油 尖 旺</v>
       </c>
       <c r="F26">
         <f t="shared" ca="1" si="0"/>
-        <v>3832</v>
+        <v>4388</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
@@ -969,7 +975,7 @@
       </c>
       <c r="B27" t="str">
         <f ca="1">INDEX({"泥水","木匠","油漆","喉管","模板","扎鐵","混凝土","搭棚","平水及測量","電器","金屬棚架","金屬工","雲石","雕刻木器","天花間隔","挖掘機"}, RANDBETWEEN(1,16))</f>
-        <v>搭棚</v>
+        <v>混凝土</v>
       </c>
       <c r="C27" s="1">
         <v>42851</v>
@@ -979,11 +985,11 @@
       </c>
       <c r="E27" t="str">
         <f ca="1">INDEX({"中 西 區","東 區","南 區","灣 仔","九 龍 城","觀 塘","深 水 埗","黃 大 仙","油 尖 旺","離 島","葵 青","北 區","西 貢","沙 田","大 埔","荃 灣","屯 門","元 朗"}, RANDBETWEEN(1,18))</f>
-        <v>屯 門</v>
+        <v>大 埔</v>
       </c>
       <c r="F27">
         <f t="shared" ca="1" si="0"/>
-        <v>2679</v>
+        <v>4790</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
@@ -992,7 +998,7 @@
       </c>
       <c r="B28" t="str">
         <f ca="1">INDEX({"泥水","木匠","油漆","喉管","模板","扎鐵","混凝土","搭棚","平水及測量","電器","金屬棚架","金屬工","雲石","雕刻木器","天花間隔","挖掘機"}, RANDBETWEEN(1,16))</f>
-        <v>木匠</v>
+        <v>平水及測量</v>
       </c>
       <c r="C28" s="1">
         <v>42852</v>
@@ -1002,11 +1008,11 @@
       </c>
       <c r="E28" t="str">
         <f ca="1">INDEX({"中 西 區","東 區","南 區","灣 仔","九 龍 城","觀 塘","深 水 埗","黃 大 仙","油 尖 旺","離 島","葵 青","北 區","西 貢","沙 田","大 埔","荃 灣","屯 門","元 朗"}, RANDBETWEEN(1,18))</f>
-        <v>灣 仔</v>
+        <v>葵 青</v>
       </c>
       <c r="F28">
         <f t="shared" ca="1" si="0"/>
-        <v>2846</v>
+        <v>2596</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
@@ -1015,7 +1021,7 @@
       </c>
       <c r="B29" t="str">
         <f ca="1">INDEX({"泥水","木匠","油漆","喉管","模板","扎鐵","混凝土","搭棚","平水及測量","電器","金屬棚架","金屬工","雲石","雕刻木器","天花間隔","挖掘機"}, RANDBETWEEN(1,16))</f>
-        <v>泥水</v>
+        <v>雲石</v>
       </c>
       <c r="C29" s="1">
         <v>42853</v>
@@ -1025,11 +1031,11 @@
       </c>
       <c r="E29" t="str">
         <f ca="1">INDEX({"中 西 區","東 區","南 區","灣 仔","九 龍 城","觀 塘","深 水 埗","黃 大 仙","油 尖 旺","離 島","葵 青","北 區","西 貢","沙 田","大 埔","荃 灣","屯 門","元 朗"}, RANDBETWEEN(1,18))</f>
-        <v>荃 灣</v>
+        <v>離 島</v>
       </c>
       <c r="F29">
         <f t="shared" ca="1" si="0"/>
-        <v>1397</v>
+        <v>2269</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
@@ -1038,7 +1044,7 @@
       </c>
       <c r="B30" t="str">
         <f ca="1">INDEX({"泥水","木匠","油漆","喉管","模板","扎鐵","混凝土","搭棚","平水及測量","電器","金屬棚架","金屬工","雲石","雕刻木器","天花間隔","挖掘機"}, RANDBETWEEN(1,16))</f>
-        <v>天花間隔</v>
+        <v>搭棚</v>
       </c>
       <c r="C30" s="1">
         <v>42854</v>
@@ -1052,7 +1058,7 @@
       </c>
       <c r="F30">
         <f t="shared" ca="1" si="0"/>
-        <v>1756</v>
+        <v>4641</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
@@ -1061,7 +1067,7 @@
       </c>
       <c r="B31" t="str">
         <f ca="1">INDEX({"泥水","木匠","油漆","喉管","模板","扎鐵","混凝土","搭棚","平水及測量","電器","金屬棚架","金屬工","雲石","雕刻木器","天花間隔","挖掘機"}, RANDBETWEEN(1,16))</f>
-        <v>天花間隔</v>
+        <v>平水及測量</v>
       </c>
       <c r="C31" s="1">
         <v>42855</v>
@@ -1071,11 +1077,11 @@
       </c>
       <c r="E31" t="str">
         <f ca="1">INDEX({"中 西 區","東 區","南 區","灣 仔","九 龍 城","觀 塘","深 水 埗","黃 大 仙","油 尖 旺","離 島","葵 青","北 區","西 貢","沙 田","大 埔","荃 灣","屯 門","元 朗"}, RANDBETWEEN(1,18))</f>
-        <v>沙 田</v>
+        <v>油 尖 旺</v>
       </c>
       <c r="F31">
         <f t="shared" ca="1" si="0"/>
-        <v>3871</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
@@ -1084,7 +1090,7 @@
       </c>
       <c r="B32" t="str">
         <f ca="1">INDEX({"泥水","木匠","油漆","喉管","模板","扎鐵","混凝土","搭棚","平水及測量","電器","金屬棚架","金屬工","雲石","雕刻木器","天花間隔","挖掘機"}, RANDBETWEEN(1,16))</f>
-        <v>木匠</v>
+        <v>雲石</v>
       </c>
       <c r="C32" s="1">
         <v>42856</v>
@@ -1094,11 +1100,11 @@
       </c>
       <c r="E32" t="str">
         <f ca="1">INDEX({"中 西 區","東 區","南 區","灣 仔","九 龍 城","觀 塘","深 水 埗","黃 大 仙","油 尖 旺","離 島","葵 青","北 區","西 貢","沙 田","大 埔","荃 灣","屯 門","元 朗"}, RANDBETWEEN(1,18))</f>
-        <v>南 區</v>
+        <v>北 區</v>
       </c>
       <c r="F32">
         <f t="shared" ca="1" si="0"/>
-        <v>3869</v>
+        <v>4768</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
@@ -1107,7 +1113,7 @@
       </c>
       <c r="B33" t="str">
         <f ca="1">INDEX({"泥水","木匠","油漆","喉管","模板","扎鐵","混凝土","搭棚","平水及測量","電器","金屬棚架","金屬工","雲石","雕刻木器","天花間隔","挖掘機"}, RANDBETWEEN(1,16))</f>
-        <v>金屬棚架</v>
+        <v>油漆</v>
       </c>
       <c r="C33" s="1">
         <v>42857</v>
@@ -1117,11 +1123,11 @@
       </c>
       <c r="E33" t="str">
         <f ca="1">INDEX({"中 西 區","東 區","南 區","灣 仔","九 龍 城","觀 塘","深 水 埗","黃 大 仙","油 尖 旺","離 島","葵 青","北 區","西 貢","沙 田","大 埔","荃 灣","屯 門","元 朗"}, RANDBETWEEN(1,18))</f>
-        <v>中 西 區</v>
+        <v>深 水 埗</v>
       </c>
       <c r="F33">
         <f t="shared" ca="1" si="0"/>
-        <v>2544</v>
+        <v>4090</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
@@ -1130,7 +1136,7 @@
       </c>
       <c r="B34" t="str">
         <f ca="1">INDEX({"泥水","木匠","油漆","喉管","模板","扎鐵","混凝土","搭棚","平水及測量","電器","金屬棚架","金屬工","雲石","雕刻木器","天花間隔","挖掘機"}, RANDBETWEEN(1,16))</f>
-        <v>喉管</v>
+        <v>挖掘機</v>
       </c>
       <c r="C34" s="1">
         <v>42858</v>
@@ -1140,11 +1146,11 @@
       </c>
       <c r="E34" t="str">
         <f ca="1">INDEX({"中 西 區","東 區","南 區","灣 仔","九 龍 城","觀 塘","深 水 埗","黃 大 仙","油 尖 旺","離 島","葵 青","北 區","西 貢","沙 田","大 埔","荃 灣","屯 門","元 朗"}, RANDBETWEEN(1,18))</f>
-        <v>荃 灣</v>
+        <v>大 埔</v>
       </c>
       <c r="F34">
         <f t="shared" ca="1" si="0"/>
-        <v>2684</v>
+        <v>4985</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
@@ -1153,7 +1159,7 @@
       </c>
       <c r="B35" t="str">
         <f ca="1">INDEX({"泥水","木匠","油漆","喉管","模板","扎鐵","混凝土","搭棚","平水及測量","電器","金屬棚架","金屬工","雲石","雕刻木器","天花間隔","挖掘機"}, RANDBETWEEN(1,16))</f>
-        <v>木匠</v>
+        <v>扎鐵</v>
       </c>
       <c r="C35" s="1">
         <v>42859</v>
@@ -1163,11 +1169,11 @@
       </c>
       <c r="E35" t="str">
         <f ca="1">INDEX({"中 西 區","東 區","南 區","灣 仔","九 龍 城","觀 塘","深 水 埗","黃 大 仙","油 尖 旺","離 島","葵 青","北 區","西 貢","沙 田","大 埔","荃 灣","屯 門","元 朗"}, RANDBETWEEN(1,18))</f>
-        <v>西 貢</v>
+        <v>南 區</v>
       </c>
       <c r="F35">
         <f t="shared" ca="1" si="0"/>
-        <v>2421</v>
+        <v>3778</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
@@ -1176,7 +1182,7 @@
       </c>
       <c r="B36" t="str">
         <f ca="1">INDEX({"泥水","木匠","油漆","喉管","模板","扎鐵","混凝土","搭棚","平水及測量","電器","金屬棚架","金屬工","雲石","雕刻木器","天花間隔","挖掘機"}, RANDBETWEEN(1,16))</f>
-        <v>木匠</v>
+        <v>平水及測量</v>
       </c>
       <c r="C36" s="1">
         <v>42860</v>
@@ -1186,11 +1192,11 @@
       </c>
       <c r="E36" t="str">
         <f ca="1">INDEX({"中 西 區","東 區","南 區","灣 仔","九 龍 城","觀 塘","深 水 埗","黃 大 仙","油 尖 旺","離 島","葵 青","北 區","西 貢","沙 田","大 埔","荃 灣","屯 門","元 朗"}, RANDBETWEEN(1,18))</f>
-        <v>南 區</v>
+        <v>東 區</v>
       </c>
       <c r="F36">
         <f t="shared" ca="1" si="0"/>
-        <v>2871</v>
+        <v>3523</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
@@ -1199,7 +1205,7 @@
       </c>
       <c r="B37" t="str">
         <f ca="1">INDEX({"泥水","木匠","油漆","喉管","模板","扎鐵","混凝土","搭棚","平水及測量","電器","金屬棚架","金屬工","雲石","雕刻木器","天花間隔","挖掘機"}, RANDBETWEEN(1,16))</f>
-        <v>泥水</v>
+        <v>挖掘機</v>
       </c>
       <c r="C37" s="1">
         <v>42861</v>
@@ -1209,11 +1215,11 @@
       </c>
       <c r="E37" t="str">
         <f ca="1">INDEX({"中 西 區","東 區","南 區","灣 仔","九 龍 城","觀 塘","深 水 埗","黃 大 仙","油 尖 旺","離 島","葵 青","北 區","西 貢","沙 田","大 埔","荃 灣","屯 門","元 朗"}, RANDBETWEEN(1,18))</f>
-        <v>東 區</v>
+        <v>觀 塘</v>
       </c>
       <c r="F37">
         <f t="shared" ca="1" si="0"/>
-        <v>4835</v>
+        <v>4590</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
@@ -1222,7 +1228,7 @@
       </c>
       <c r="B38" t="str">
         <f ca="1">INDEX({"泥水","木匠","油漆","喉管","模板","扎鐵","混凝土","搭棚","平水及測量","電器","金屬棚架","金屬工","雲石","雕刻木器","天花間隔","挖掘機"}, RANDBETWEEN(1,16))</f>
-        <v>喉管</v>
+        <v>泥水</v>
       </c>
       <c r="C38" s="1">
         <v>42862</v>
@@ -1232,11 +1238,11 @@
       </c>
       <c r="E38" t="str">
         <f ca="1">INDEX({"中 西 區","東 區","南 區","灣 仔","九 龍 城","觀 塘","深 水 埗","黃 大 仙","油 尖 旺","離 島","葵 青","北 區","西 貢","沙 田","大 埔","荃 灣","屯 門","元 朗"}, RANDBETWEEN(1,18))</f>
-        <v>東 區</v>
+        <v>南 區</v>
       </c>
       <c r="F38">
         <f t="shared" ca="1" si="0"/>
-        <v>3323</v>
+        <v>2106</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
@@ -1245,7 +1251,7 @@
       </c>
       <c r="B39" t="str">
         <f ca="1">INDEX({"泥水","木匠","油漆","喉管","模板","扎鐵","混凝土","搭棚","平水及測量","電器","金屬棚架","金屬工","雲石","雕刻木器","天花間隔","挖掘機"}, RANDBETWEEN(1,16))</f>
-        <v>雲石</v>
+        <v>電器</v>
       </c>
       <c r="C39" s="1">
         <v>42863</v>
@@ -1255,11 +1261,11 @@
       </c>
       <c r="E39" t="str">
         <f ca="1">INDEX({"中 西 區","東 區","南 區","灣 仔","九 龍 城","觀 塘","深 水 埗","黃 大 仙","油 尖 旺","離 島","葵 青","北 區","西 貢","沙 田","大 埔","荃 灣","屯 門","元 朗"}, RANDBETWEEN(1,18))</f>
-        <v>沙 田</v>
+        <v>元 朗</v>
       </c>
       <c r="F39">
         <f t="shared" ca="1" si="0"/>
-        <v>3679</v>
+        <v>3855</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
@@ -1268,7 +1274,7 @@
       </c>
       <c r="B40" t="str">
         <f ca="1">INDEX({"泥水","木匠","油漆","喉管","模板","扎鐵","混凝土","搭棚","平水及測量","電器","金屬棚架","金屬工","雲石","雕刻木器","天花間隔","挖掘機"}, RANDBETWEEN(1,16))</f>
-        <v>雕刻木器</v>
+        <v>模板</v>
       </c>
       <c r="C40" s="1">
         <v>42864</v>
@@ -1278,11 +1284,11 @@
       </c>
       <c r="E40" t="str">
         <f ca="1">INDEX({"中 西 區","東 區","南 區","灣 仔","九 龍 城","觀 塘","深 水 埗","黃 大 仙","油 尖 旺","離 島","葵 青","北 區","西 貢","沙 田","大 埔","荃 灣","屯 門","元 朗"}, RANDBETWEEN(1,18))</f>
-        <v>沙 田</v>
+        <v>九 龍 城</v>
       </c>
       <c r="F40">
         <f t="shared" ca="1" si="0"/>
-        <v>3280</v>
+        <v>3197</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
@@ -1291,7 +1297,7 @@
       </c>
       <c r="B41" t="str">
         <f ca="1">INDEX({"泥水","木匠","油漆","喉管","模板","扎鐵","混凝土","搭棚","平水及測量","電器","金屬棚架","金屬工","雲石","雕刻木器","天花間隔","挖掘機"}, RANDBETWEEN(1,16))</f>
-        <v>模板</v>
+        <v>喉管</v>
       </c>
       <c r="C41" s="1">
         <v>42865</v>
@@ -1301,11 +1307,11 @@
       </c>
       <c r="E41" t="str">
         <f ca="1">INDEX({"中 西 區","東 區","南 區","灣 仔","九 龍 城","觀 塘","深 水 埗","黃 大 仙","油 尖 旺","離 島","葵 青","北 區","西 貢","沙 田","大 埔","荃 灣","屯 門","元 朗"}, RANDBETWEEN(1,18))</f>
-        <v>油 尖 旺</v>
+        <v>沙 田</v>
       </c>
       <c r="F41">
         <f t="shared" ca="1" si="0"/>
-        <v>3926</v>
+        <v>4775</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
@@ -1314,7 +1320,7 @@
       </c>
       <c r="B42" t="str">
         <f ca="1">INDEX({"泥水","木匠","油漆","喉管","模板","扎鐵","混凝土","搭棚","平水及測量","電器","金屬棚架","金屬工","雲石","雕刻木器","天花間隔","挖掘機"}, RANDBETWEEN(1,16))</f>
-        <v>喉管</v>
+        <v>扎鐵</v>
       </c>
       <c r="C42" s="1">
         <v>42866</v>
@@ -1324,11 +1330,11 @@
       </c>
       <c r="E42" t="str">
         <f ca="1">INDEX({"中 西 區","東 區","南 區","灣 仔","九 龍 城","觀 塘","深 水 埗","黃 大 仙","油 尖 旺","離 島","葵 青","北 區","西 貢","沙 田","大 埔","荃 灣","屯 門","元 朗"}, RANDBETWEEN(1,18))</f>
-        <v>油 尖 旺</v>
+        <v>灣 仔</v>
       </c>
       <c r="F42">
         <f t="shared" ca="1" si="0"/>
-        <v>4696</v>
+        <v>3795</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
@@ -1337,7 +1343,7 @@
       </c>
       <c r="B43" t="str">
         <f ca="1">INDEX({"泥水","木匠","油漆","喉管","模板","扎鐵","混凝土","搭棚","平水及測量","電器","金屬棚架","金屬工","雲石","雕刻木器","天花間隔","挖掘機"}, RANDBETWEEN(1,16))</f>
-        <v>金屬工</v>
+        <v>電器</v>
       </c>
       <c r="C43" s="1">
         <v>42867</v>
@@ -1347,11 +1353,11 @@
       </c>
       <c r="E43" t="str">
         <f ca="1">INDEX({"中 西 區","東 區","南 區","灣 仔","九 龍 城","觀 塘","深 水 埗","黃 大 仙","油 尖 旺","離 島","葵 青","北 區","西 貢","沙 田","大 埔","荃 灣","屯 門","元 朗"}, RANDBETWEEN(1,18))</f>
-        <v>東 區</v>
+        <v>深 水 埗</v>
       </c>
       <c r="F43">
         <f t="shared" ca="1" si="0"/>
-        <v>4754</v>
+        <v>3795</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
@@ -1360,7 +1366,7 @@
       </c>
       <c r="B44" t="str">
         <f ca="1">INDEX({"泥水","木匠","油漆","喉管","模板","扎鐵","混凝土","搭棚","平水及測量","電器","金屬棚架","金屬工","雲石","雕刻木器","天花間隔","挖掘機"}, RANDBETWEEN(1,16))</f>
-        <v>平水及測量</v>
+        <v>挖掘機</v>
       </c>
       <c r="C44" s="1">
         <v>42868</v>
@@ -1370,11 +1376,11 @@
       </c>
       <c r="E44" t="str">
         <f ca="1">INDEX({"中 西 區","東 區","南 區","灣 仔","九 龍 城","觀 塘","深 水 埗","黃 大 仙","油 尖 旺","離 島","葵 青","北 區","西 貢","沙 田","大 埔","荃 灣","屯 門","元 朗"}, RANDBETWEEN(1,18))</f>
-        <v>西 貢</v>
+        <v>油 尖 旺</v>
       </c>
       <c r="F44">
         <f t="shared" ca="1" si="0"/>
-        <v>3007</v>
+        <v>4457</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
@@ -1383,7 +1389,7 @@
       </c>
       <c r="B45" t="str">
         <f ca="1">INDEX({"泥水","木匠","油漆","喉管","模板","扎鐵","混凝土","搭棚","平水及測量","電器","金屬棚架","金屬工","雲石","雕刻木器","天花間隔","挖掘機"}, RANDBETWEEN(1,16))</f>
-        <v>天花間隔</v>
+        <v>金屬棚架</v>
       </c>
       <c r="C45" s="1">
         <v>42869</v>
@@ -1393,11 +1399,11 @@
       </c>
       <c r="E45" t="str">
         <f ca="1">INDEX({"中 西 區","東 區","南 區","灣 仔","九 龍 城","觀 塘","深 水 埗","黃 大 仙","油 尖 旺","離 島","葵 青","北 區","西 貢","沙 田","大 埔","荃 灣","屯 門","元 朗"}, RANDBETWEEN(1,18))</f>
-        <v>觀 塘</v>
+        <v>荃 灣</v>
       </c>
       <c r="F45">
         <f t="shared" ca="1" si="0"/>
-        <v>3545</v>
+        <v>1697</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
@@ -1406,7 +1412,7 @@
       </c>
       <c r="B46" t="str">
         <f ca="1">INDEX({"泥水","木匠","油漆","喉管","模板","扎鐵","混凝土","搭棚","平水及測量","電器","金屬棚架","金屬工","雲石","雕刻木器","天花間隔","挖掘機"}, RANDBETWEEN(1,16))</f>
-        <v>雕刻木器</v>
+        <v>電器</v>
       </c>
       <c r="C46" s="1">
         <v>42870</v>
@@ -1416,11 +1422,11 @@
       </c>
       <c r="E46" t="str">
         <f ca="1">INDEX({"中 西 區","東 區","南 區","灣 仔","九 龍 城","觀 塘","深 水 埗","黃 大 仙","油 尖 旺","離 島","葵 青","北 區","西 貢","沙 田","大 埔","荃 灣","屯 門","元 朗"}, RANDBETWEEN(1,18))</f>
-        <v>離 島</v>
+        <v>南 區</v>
       </c>
       <c r="F46">
         <f t="shared" ca="1" si="0"/>
-        <v>3830</v>
+        <v>2487</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
@@ -1429,7 +1435,7 @@
       </c>
       <c r="B47" t="str">
         <f ca="1">INDEX({"泥水","木匠","油漆","喉管","模板","扎鐵","混凝土","搭棚","平水及測量","電器","金屬棚架","金屬工","雲石","雕刻木器","天花間隔","挖掘機"}, RANDBETWEEN(1,16))</f>
-        <v>金屬棚架</v>
+        <v>木匠</v>
       </c>
       <c r="C47" s="1">
         <v>42871</v>
@@ -1439,11 +1445,11 @@
       </c>
       <c r="E47" t="str">
         <f ca="1">INDEX({"中 西 區","東 區","南 區","灣 仔","九 龍 城","觀 塘","深 水 埗","黃 大 仙","油 尖 旺","離 島","葵 青","北 區","西 貢","沙 田","大 埔","荃 灣","屯 門","元 朗"}, RANDBETWEEN(1,18))</f>
-        <v>大 埔</v>
+        <v>九 龍 城</v>
       </c>
       <c r="F47">
         <f t="shared" ca="1" si="0"/>
-        <v>2302</v>
+        <v>4765</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
@@ -1452,7 +1458,7 @@
       </c>
       <c r="B48" t="str">
         <f ca="1">INDEX({"泥水","木匠","油漆","喉管","模板","扎鐵","混凝土","搭棚","平水及測量","電器","金屬棚架","金屬工","雲石","雕刻木器","天花間隔","挖掘機"}, RANDBETWEEN(1,16))</f>
-        <v>金屬棚架</v>
+        <v>挖掘機</v>
       </c>
       <c r="C48" s="1">
         <v>42872</v>
@@ -1462,11 +1468,11 @@
       </c>
       <c r="E48" t="str">
         <f ca="1">INDEX({"中 西 區","東 區","南 區","灣 仔","九 龍 城","觀 塘","深 水 埗","黃 大 仙","油 尖 旺","離 島","葵 青","北 區","西 貢","沙 田","大 埔","荃 灣","屯 門","元 朗"}, RANDBETWEEN(1,18))</f>
-        <v>北 區</v>
+        <v>大 埔</v>
       </c>
       <c r="F48">
         <f t="shared" ca="1" si="0"/>
-        <v>2024</v>
+        <v>2060</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
@@ -1475,7 +1481,7 @@
       </c>
       <c r="B49" t="str">
         <f ca="1">INDEX({"泥水","木匠","油漆","喉管","模板","扎鐵","混凝土","搭棚","平水及測量","電器","金屬棚架","金屬工","雲石","雕刻木器","天花間隔","挖掘機"}, RANDBETWEEN(1,16))</f>
-        <v>模板</v>
+        <v>電器</v>
       </c>
       <c r="C49" s="1">
         <v>42873</v>
@@ -1485,11 +1491,11 @@
       </c>
       <c r="E49" t="str">
         <f ca="1">INDEX({"中 西 區","東 區","南 區","灣 仔","九 龍 城","觀 塘","深 水 埗","黃 大 仙","油 尖 旺","離 島","葵 青","北 區","西 貢","沙 田","大 埔","荃 灣","屯 門","元 朗"}, RANDBETWEEN(1,18))</f>
-        <v>北 區</v>
+        <v>離 島</v>
       </c>
       <c r="F49">
         <f t="shared" ca="1" si="0"/>
-        <v>3487</v>
+        <v>3341</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
@@ -1498,7 +1504,7 @@
       </c>
       <c r="B50" t="str">
         <f ca="1">INDEX({"泥水","木匠","油漆","喉管","模板","扎鐵","混凝土","搭棚","平水及測量","電器","金屬棚架","金屬工","雲石","雕刻木器","天花間隔","挖掘機"}, RANDBETWEEN(1,16))</f>
-        <v>平水及測量</v>
+        <v>搭棚</v>
       </c>
       <c r="C50" s="1">
         <v>42874</v>
@@ -1508,11 +1514,11 @@
       </c>
       <c r="E50" t="str">
         <f ca="1">INDEX({"中 西 區","東 區","南 區","灣 仔","九 龍 城","觀 塘","深 水 埗","黃 大 仙","油 尖 旺","離 島","葵 青","北 區","西 貢","沙 田","大 埔","荃 灣","屯 門","元 朗"}, RANDBETWEEN(1,18))</f>
-        <v>深 水 埗</v>
+        <v>灣 仔</v>
       </c>
       <c r="F50">
         <f t="shared" ca="1" si="0"/>
-        <v>1001</v>
+        <v>1645</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
@@ -1521,7 +1527,7 @@
       </c>
       <c r="B51" t="str">
         <f ca="1">INDEX({"泥水","木匠","油漆","喉管","模板","扎鐵","混凝土","搭棚","平水及測量","電器","金屬棚架","金屬工","雲石","雕刻木器","天花間隔","挖掘機"}, RANDBETWEEN(1,16))</f>
-        <v>油漆</v>
+        <v>木匠</v>
       </c>
       <c r="C51" s="1">
         <v>42875</v>
@@ -1531,11 +1537,11 @@
       </c>
       <c r="E51" t="str">
         <f ca="1">INDEX({"中 西 區","東 區","南 區","灣 仔","九 龍 城","觀 塘","深 水 埗","黃 大 仙","油 尖 旺","離 島","葵 青","北 區","西 貢","沙 田","大 埔","荃 灣","屯 門","元 朗"}, RANDBETWEEN(1,18))</f>
-        <v>九 龍 城</v>
+        <v>東 區</v>
       </c>
       <c r="F51">
         <f t="shared" ca="1" si="0"/>
-        <v>3947</v>
+        <v>1427</v>
       </c>
     </row>
   </sheetData>
